--- a/biology/Botanique/Coussarea_violacea/Coussarea_violacea.xlsx
+++ b/biology/Botanique/Coussarea_violacea/Coussarea_violacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coussarea violacea est une espèce néotropicale d'arbre endémique des Guyanes, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Coussarea Aubl.[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coussarea violacea est une espèce néotropicale d'arbre endémique des Guyanes, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Coussarea Aubl..
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coussarea violacea est un arbre ou arbuste, atteignant 9 m de haut.
-Ses feuilles mesurent 8-20 × 3,5-9 cm, et ses stipules 2-3 mm de long. Elles comportent des domaties en fentes[4].
+Ses feuilles mesurent 8-20 × 3,5-9 cm, et ses stipules 2-3 mm de long. Elles comportent des domaties en fentes.
 Le limbe du calice est long de 1,5-2 mm. Le tube de la corolle est long de 4,5-5,5 mm, avec des lobes de 3,5-5 mm.
-Le fruit[5], de couleur blanche, violette à rouge-orangé, mesure environ 22 × 11 mm[6],[7].
+Le fruit, de couleur blanche, violette à rouge-orangé, mesure environ 22 × 11 mm,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coussarea violacea est présente une aire de répartition restreinte au Venezuela (Amazonas : Río Casiquiare, Orénoque supérieur), au Guyana et à la Guyane[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coussarea violacea est présente une aire de répartition restreinte au Venezuela (Amazonas : Río Casiquiare, Orénoque supérieur), au Guyana et à la Guyane.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coussarea violacea pousse dans les forêts sempervirentes de plaine, à 100-200 m d'altitude[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coussarea violacea pousse dans les forêts sempervirentes de plaine, à 100-200 m d'altitude.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[8] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « COUSSAREA violacea. (Tabula 38.)
 Frutex octo-pedalis, ramoſus, ramis, &amp; ramuſculis oppoſitis. Folia oppoſita, ampla, ovata, acuta, glabra integerrima, petiolata. Stipulæ latæ, acutæ, utrinquè intrà baſim petiolorum. Flores corynvboſi, terminales. Corymbis ſubſeſſilibus. Bacca unilocularis ; cortice extùs violaceo, intùs ſubcarnoſo, luteo, teſtæ adhérens in qua semen ſubrotundum coriaceum reconditur.
 Floret fructumque ſert Januario.
